--- a/Programmi20192020/text_5ce/virtuale/diario.xlsx
+++ b/Programmi20192020/text_5ce/virtuale/diario.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>data</t>
   </si>
@@ -26,13 +26,24 @@
   <si>
     <t>Esercitazione sulla PD propedeutica all'analisi per Indici</t>
   </si>
+  <si>
+    <t>Correzione es. del 6/3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -60,9 +71,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -357,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -385,8 +397,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Programmi20192020/text_5ce/virtuale/diario.xlsx
+++ b/Programmi20192020/text_5ce/virtuale/diario.xlsx
@@ -16,18 +16,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>attività</t>
-  </si>
-  <si>
     <t>Esercitazione sulla PD propedeutica all'analisi per Indici</t>
   </si>
   <si>
     <t>Correzione es. del 6/3</t>
+  </si>
+  <si>
+    <t>Lezioni in aula virtuale</t>
+  </si>
+  <si>
+    <t>Durata</t>
+  </si>
+  <si>
+    <t>orario</t>
+  </si>
+  <si>
+    <t>11.50-14.00</t>
+  </si>
+  <si>
+    <t>3,10 h</t>
+  </si>
+  <si>
+    <t>materiali</t>
+  </si>
+  <si>
+    <t>Fogli di google, esercizio</t>
   </si>
 </sst>
 </file>
@@ -369,40 +387,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="54.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
